--- a/Measurements/Effeciency/Effeciency Closed Loop 16-01-2018.xlsx
+++ b/Measurements/Effeciency/Effeciency Closed Loop 16-01-2018.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="466" documentId="74A17B0689622990A51C052D9679C61268987CF0" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FA6A9368-4FA4-419E-8569-E2237A2538A9}"/>
+  <xr:revisionPtr revIDLastSave="484" documentId="74A17B0689622990A51C052D9679C61268987CF0" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{32F5BFC8-9846-40A4-BE27-9DD2B41E996F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="export 30-15" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="9">
   <si>
     <t>Input</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Effeciency [%]</t>
   </si>
 </sst>
 </file>
@@ -5280,7 +5284,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5291,7 +5295,7 @@
     <col min="5" max="5" width="9.1328125" customWidth="1"/>
     <col min="6" max="7" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="1"/>
+    <col min="10" max="10" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -5328,7 +5332,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -7923,4 +7927,202 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A264698-9DB0-4655-9D9F-0A1A9777571B}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="str">
+        <f>'Ark1'!H2</f>
+        <v>Power [W]</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>'Ark1'!J2</f>
+        <v>Effeciency [%]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <f>'Ark1'!H3</f>
+        <v>1.5</v>
+      </c>
+      <c r="B2" s="1">
+        <f>'Ark1'!J3</f>
+        <v>67.174205105239579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f>'Ark1'!H4</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'Ark1'!J4</f>
+        <v>71.718862060721975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f>'Ark1'!H5</f>
+        <v>4.5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'Ark1'!J5</f>
+        <v>73.373552910484264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f>'Ark1'!H6</f>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'Ark1'!J6</f>
+        <v>86.417974938787253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f>'Ark1'!H7</f>
+        <v>6.75</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'Ark1'!J7</f>
+        <v>87.063072359086803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f>'Ark1'!H8</f>
+        <v>7.5</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'Ark1'!J8</f>
+        <v>87.280344466426158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f>'Ark1'!H9</f>
+        <v>8.25</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'Ark1'!J9</f>
+        <v>87.458920809922617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f>'Ark1'!H10</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <f>'Ark1'!J10</f>
+        <v>87.608293585126049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f>'Ark1'!H11</f>
+        <v>10.5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>'Ark1'!J11</f>
+        <v>87.844055885551725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f>'Ark1'!H12</f>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <f>'Ark1'!J12</f>
+        <v>87.828441777062139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f>'Ark1'!H13</f>
+        <v>13.5</v>
+      </c>
+      <c r="B12" s="1">
+        <f>'Ark1'!J13</f>
+        <v>87.816301307487137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f>'Ark1'!H14</f>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <f>'Ark1'!J14</f>
+        <v>87.806591348123845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f>'Ark1'!H15</f>
+        <v>16.5</v>
+      </c>
+      <c r="B14" s="1">
+        <f>'Ark1'!J15</f>
+        <v>87.798648432927166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f>'Ark1'!H16</f>
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <f>'Ark1'!J16</f>
+        <v>87.663760775337252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f>'Ark1'!H17</f>
+        <v>19.5</v>
+      </c>
+      <c r="B16" s="1">
+        <f>'Ark1'!J17</f>
+        <v>87.432184011119574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f>'Ark1'!H18</f>
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <f>'Ark1'!J18</f>
+        <v>87.234661238732187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f>'Ark1'!H19</f>
+        <v>22.5</v>
+      </c>
+      <c r="B18" s="1">
+        <f>'Ark1'!J19</f>
+        <v>86.963243535732232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>